--- a/OKLO.xlsx
+++ b/OKLO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7sher\Documents\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E6CC0B8-ED9E-4F25-ADE8-90B18A111F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079531AB-DD0C-4D4D-A6EE-FA93FF5E6D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{F5CD5BBC-DCF7-4AA4-99E5-12FC1BD91F9B}"/>
+    <workbookView xWindow="4665" yWindow="345" windowWidth="22200" windowHeight="14535" activeTab="3" xr2:uid="{F5CD5BBC-DCF7-4AA4-99E5-12FC1BD91F9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -3949,7 +3949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03BFD711-D47F-4FE9-8131-3AF1DEFB8005}">
   <dimension ref="B2:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -4127,10 +4127,10 @@
   <dimension ref="A1:DW32"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="T3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomRight" activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5891,7 +5891,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11787,8 +11787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3EE398B-41EC-465F-831A-C851EF9BD33D}">
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
